--- a/survey-data-tidy.xlsx
+++ b/survey-data-tidy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayden/Documents/tfcb-homework01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{969FCB39-70FE-BB4C-AB7F-8C20046DE818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3568FEDD-AB9D-AF4A-AFD2-B814BFB331A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="1400" windowWidth="25120" windowHeight="15580" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="39">
   <si>
     <t>species</t>
   </si>
@@ -45,9 +45,6 @@
     <t>weight</t>
   </si>
   <si>
-    <t>scale-not-calibrated</t>
-  </si>
-  <si>
     <t>2013-07-16</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>ds</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>2014-01-09</t>
   </si>
   <si>
@@ -139,6 +133,18 @@
   </si>
   <si>
     <t>ol</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>scale-calibrated</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -577,7 +583,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -621,7 +627,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -646,7 +652,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -657,7 +663,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -675,7 +681,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -683,64 +689,82 @@
         <v>2013</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2013</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2013</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2013</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -748,19 +772,22 @@
       <c r="F5">
         <v>33</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2013</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -768,19 +795,22 @@
       <c r="F6">
         <v>29</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2013</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -788,19 +818,22 @@
       <c r="F7">
         <v>37</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2013</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -808,19 +841,22 @@
       <c r="F8">
         <v>40</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2013</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -828,19 +864,22 @@
       <c r="F9">
         <v>48</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2013</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -848,19 +887,22 @@
       <c r="F10">
         <v>52</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2013</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -868,19 +910,22 @@
       <c r="F11">
         <v>33</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2013</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -888,19 +933,22 @@
       <c r="F12">
         <v>50</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2013</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>9</v>
@@ -908,19 +956,22 @@
       <c r="F13">
         <v>117</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2013</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -928,19 +979,22 @@
       <c r="F14">
         <v>107</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2013</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -948,19 +1002,22 @@
       <c r="F15">
         <v>115</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2013</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>11</v>
@@ -968,19 +1025,22 @@
       <c r="F16">
         <v>122</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2013</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>11</v>
@@ -988,19 +1048,22 @@
       <c r="F17">
         <v>126</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2013</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>14</v>
@@ -1009,7 +1072,7 @@
         <v>113</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1017,13 +1080,13 @@
         <v>2013</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>17</v>
@@ -1032,7 +1095,7 @@
         <v>132</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1040,13 +1103,13 @@
         <v>2013</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>9</v>
@@ -1054,19 +1117,22 @@
       <c r="F20">
         <v>40</v>
       </c>
+      <c r="G20" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2013</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1074,19 +1140,22 @@
       <c r="F21">
         <v>45</v>
       </c>
+      <c r="G21" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>2013</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>8</v>
@@ -1094,19 +1163,22 @@
       <c r="F22">
         <v>41</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2014</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>4</v>
@@ -1114,19 +1186,22 @@
       <c r="F23">
         <v>37</v>
       </c>
+      <c r="G23" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2014</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -1134,36 +1209,45 @@
       <c r="F24">
         <v>48</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2014</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2014</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -1171,19 +1255,22 @@
       <c r="F26">
         <v>52</v>
       </c>
+      <c r="G26" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2014</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -1191,19 +1278,22 @@
       <c r="F27">
         <v>35</v>
       </c>
+      <c r="G27" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2014</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -1211,19 +1301,22 @@
       <c r="F28">
         <v>44</v>
       </c>
+      <c r="G28" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2014</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -1231,19 +1324,22 @@
       <c r="F29">
         <v>45</v>
       </c>
+      <c r="G29" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2014</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1252,7 +1348,7 @@
         <v>157</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -1260,55 +1356,82 @@
         <v>2014</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>24</v>
+      <c r="D31" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>2014</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
+      <c r="F32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>2014</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
+      <c r="F33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>2014</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -1316,19 +1439,22 @@
       <c r="F34">
         <v>7</v>
       </c>
+      <c r="G34" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>2014</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1336,19 +1462,22 @@
       <c r="F35">
         <v>36</v>
       </c>
+      <c r="G35" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>2014</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1356,19 +1485,22 @@
       <c r="F36">
         <v>40</v>
       </c>
+      <c r="G36" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>2014</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -1376,19 +1508,22 @@
       <c r="F37">
         <v>52</v>
       </c>
+      <c r="G37" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>2014</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -1397,7 +1532,7 @@
         <v>218</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -1405,13 +1540,13 @@
         <v>2014</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -1419,19 +1554,22 @@
       <c r="F39">
         <v>7</v>
       </c>
+      <c r="G39" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>2014</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -1439,19 +1577,22 @@
       <c r="F40">
         <v>8</v>
       </c>
+      <c r="G40" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>2014</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1459,19 +1600,22 @@
       <c r="F41">
         <v>44</v>
       </c>
+      <c r="G41" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>2014</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1479,19 +1623,22 @@
       <c r="F42">
         <v>51</v>
       </c>
+      <c r="G42" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>2014</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1499,48 +1646,68 @@
       <c r="F43">
         <v>146</v>
       </c>
+      <c r="G43" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>2014</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44">
         <v>3</v>
       </c>
+      <c r="F44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>2014</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E45">
         <v>3</v>
       </c>
+      <c r="F45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>2014</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -1548,19 +1715,22 @@
       <c r="F46">
         <v>182</v>
       </c>
+      <c r="G46" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>2014</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -1568,19 +1738,22 @@
       <c r="F47">
         <v>29</v>
       </c>
+      <c r="G47" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>2014</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -1588,19 +1761,22 @@
       <c r="F48">
         <v>115</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G48" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>2014</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -1608,38 +1784,41 @@
       <c r="F49">
         <v>190</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G49" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B60" s="2"/>
     </row>
   </sheetData>
